--- a/config_12.29/act_025_jrth_config.xlsx
+++ b/config_12.29/act_025_jrth_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26415" windowHeight="12375" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26415" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="permisson_level1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>index</t>
   </si>
@@ -65,9 +65,6 @@
     <t>"65万","68万","70万","80万","100万","300万"</t>
   </si>
   <si>
-    <t>"ty_icon_jb_50y","ty_icon_jb_98y","ty_icon_jb_198y","ty_icon_jb_498y","ty_icon_jb_998y","ty_icon_jb_2498y"</t>
-  </si>
-  <si>
     <t>6元</t>
   </si>
   <si>
@@ -204,9 +201,6 @@
       </rPr>
       <t>00万"</t>
     </r>
-  </si>
-  <si>
-    <t>8元</t>
   </si>
   <si>
     <t>钻石宝箱</t>
@@ -828,6 +822,38 @@
       </rPr>
       <t>,2,3,4,5,6</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,2,3,4,5,6</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","ty_icon_jb_98y","ty_icon_jb_198y","ty_icon_jb_498y","ty_icon_jb_998y","ty_icon_jb_2498y"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -905,7 +931,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -934,6 +960,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -996,7 +1028,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1031,7 +1063,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1242,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1311,17 +1343,17 @@
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>37</v>
+      <c r="F2" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -1339,22 +1371,22 @@
         <v>10332</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="H3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="J3" s="1">
         <v>2</v>
@@ -1371,22 +1403,22 @@
         <v>10333</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="J4" s="1">
         <v>3</v>
@@ -1487,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1556,16 +1588,16 @@
         <v>12</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -1583,22 +1615,22 @@
         <v>10335</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1">
         <v>2</v>
@@ -1615,22 +1647,22 @@
         <v>10336</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J4" s="1">
         <v>3</v>
@@ -1762,19 +1794,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1782,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>1609200000</v>
@@ -1791,7 +1823,7 @@
         <v>1609775999</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
